--- a/biology/Médecine/MEF2/MEF2.xlsx
+++ b/biology/Médecine/MEF2/MEF2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">le MEF2 (pour « myocyte enhancer factor-2 ») est une protéine jouant un rôle de facteur de transcription.
 </t>
@@ -511,10 +523,12 @@
           <t>Structure et rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe, chez l'être humain, sous plusieurs isoformes, codées par quatre gènes différents, MEF2A, MEF2B, MEF2C, and MEF2D.
-Son activité est modulée par l'apeline[1].
+Son activité est modulée par l'apeline.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'hypertension artérielle pulmonaire, son activité est réduite[2] par l'accumulation de plusieurs histone désacétylases[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'hypertension artérielle pulmonaire, son activité est réduite par l'accumulation de plusieurs histone désacétylases.
 </t>
         </is>
       </c>
